--- a/Test.xlsx
+++ b/Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syrek.w\Documents\UiPath\JIRA_REST_API_AUTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TPBB Robot\Documents\UiPath\JIRA_Migration_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E280BBF6-9DD2-458D-B104-2EC4878C5BA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D197AF5A-4E54-49B1-BE7B-B7B737E67D90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{792B733E-0C38-4372-BD0A-35E163256986}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20760" windowHeight="11160" xr2:uid="{792B733E-0C38-4372-BD0A-35E163256986}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18033,10 +18033,10 @@
     <t>[TC4497] [UK] Truck percentage on minicart</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>title</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -18391,7 +18391,7 @@
   <dimension ref="A1:B3001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
